--- a/api/src/main/sql/数据库表结构-命名.xlsx
+++ b/api/src/main/sql/数据库表结构-命名.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
   <si>
     <t>用户表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -507,6 +507,66 @@
   </si>
   <si>
     <t>ophoto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s_pass</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>gm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_num</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oll_num</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -913,7 +973,7 @@
   <dimension ref="A3:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1163,6 +1223,12 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>71</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
         <v>16</v>
@@ -1213,6 +1279,12 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="F18" s="2"/>
+      <c r="G18" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="K18" s="9" t="s">
         <v>67</v>
       </c>
@@ -1221,6 +1293,12 @@
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="F19" s="2"/>
+      <c r="G19" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
